--- a/Fox財報資料_2024_Q1.xlsx
+++ b/Fox財報資料_2024_Q1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FM_pc\Desktop\financial_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3F34AD-747D-47F2-A2BB-FF03D322F51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1505A65D-2010-4493-A790-0B3DB2609D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="12900" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="簡明合併資產負債表" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="446">
   <si>
     <t>項目類別</t>
   </si>
@@ -118,15 +118,6 @@
     <t>非流動負債</t>
   </si>
   <si>
-    <t>Assets: 資產</t>
-  </si>
-  <si>
-    <t>Current assets:: 流動資產：</t>
-  </si>
-  <si>
-    <t>Cash and cash equivalents: 現金及約當現金</t>
-  </si>
-  <si>
     <t>應收帳款變動 (net of allowances of $969 and $1,158 at March 29, 2024 and</t>
   </si>
   <si>
@@ -136,67 +127,16 @@
     <t>Inventory: 存貨變動</t>
   </si>
   <si>
-    <t>Prepaids and other current assets: 預付費用及其他流動資產</t>
-  </si>
-  <si>
-    <t>Total current assets: 流動資產合計</t>
-  </si>
-  <si>
-    <t>Property, plant and equipment, net: 不動產、廠房及設備（淨額）</t>
-  </si>
-  <si>
-    <t>Lease right-of-use assets: 租賃使用權資產</t>
-  </si>
-  <si>
     <t>Deferred tax assets</t>
   </si>
   <si>
-    <t>Goodwill: 商譽</t>
-  </si>
-  <si>
-    <t>Trademarks and brands, net: 商標及品牌權（淨額）</t>
-  </si>
-  <si>
-    <t>Customer and distributor relationships, net: 客戶及經銷合作關係（淨額）</t>
-  </si>
-  <si>
-    <t>Core technologies, net: 核心技術（淨額）</t>
-  </si>
-  <si>
-    <t>Other assets: 其他資產</t>
-  </si>
-  <si>
-    <t>Total assets: 資產總額</t>
-  </si>
-  <si>
     <t>Liabilities and stockholders’ equity</t>
   </si>
   <si>
-    <t>Current liabilities:: 流動負債：</t>
-  </si>
-  <si>
     <t>Accounts payable: 應付帳款變動</t>
   </si>
   <si>
-    <t>Accrued expenses: 應計費用</t>
-  </si>
-  <si>
-    <t>Current portion of long-term debt: 長期負債—一年內到期部分</t>
-  </si>
-  <si>
-    <t>Total current liabilities: 流動負債合計</t>
-  </si>
-  <si>
-    <t>Revolver: 週轉信貸</t>
-  </si>
-  <si>
     <t>Term A Loan, less current portion</t>
-  </si>
-  <si>
-    <t>Other liabilities: 其他負債</t>
-  </si>
-  <si>
-    <t>Total liabilities: 負債總額</t>
   </si>
   <si>
     <t>承諾及或有事項（參見附註8） (Refer to Note 8 - Commitments and Contingencies)</t>
@@ -1796,578 +1736,491 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>0</v>
-      </c>
       <c r="D1" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="F15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="F16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="F24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" t="s">
-        <v>101</v>
-      </c>
-      <c r="G27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" t="s">
-        <v>102</v>
-      </c>
-      <c r="G28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" t="s">
-        <v>103</v>
-      </c>
-      <c r="G29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" t="s">
-        <v>104</v>
-      </c>
-      <c r="G30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2443,22 +2296,22 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="H2" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2466,22 +2319,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="M3" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="Q3" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -2489,22 +2342,22 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="I4" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="K4" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="M4" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="O4" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="Q4" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -2512,34 +2365,34 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="G5" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="H5" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="I5" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="J5" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="K5" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="M5" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="O5" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="Q5" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -2547,52 +2400,52 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" t="s">
+        <v>197</v>
+      </c>
+      <c r="L6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" t="s">
+        <v>202</v>
+      </c>
+      <c r="N6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" t="s">
+        <v>204</v>
+      </c>
+      <c r="P6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" t="s">
         <v>207</v>
-      </c>
-      <c r="C6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G6" t="s">
-        <v>185</v>
-      </c>
-      <c r="H6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" t="s">
-        <v>186</v>
-      </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>217</v>
-      </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" t="s">
-        <v>222</v>
-      </c>
-      <c r="N6" t="s">
-        <v>80</v>
-      </c>
-      <c r="O6" t="s">
-        <v>224</v>
-      </c>
-      <c r="P6" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -2600,34 +2453,34 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="F7" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="G7" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="H7" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="I7" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="J7" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="K7" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -2635,16 +2488,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G8" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -2652,81 +2505,81 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="D9" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="E9" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="F9" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="G9" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I9" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="K9" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="M9" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="O9" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="Q9" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" t="s">
+        <v>170</v>
+      </c>
+      <c r="I10" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10" t="s">
+        <v>199</v>
+      </c>
+      <c r="M10" t="s">
+        <v>161</v>
+      </c>
+      <c r="O10" t="s">
         <v>205</v>
       </c>
-      <c r="B10" t="s">
+      <c r="Q10" t="s">
         <v>208</v>
-      </c>
-      <c r="C10" t="s">
-        <v>211</v>
-      </c>
-      <c r="D10" t="s">
-        <v>215</v>
-      </c>
-      <c r="E10" t="s">
-        <v>181</v>
-      </c>
-      <c r="F10" t="s">
-        <v>181</v>
-      </c>
-      <c r="G10" t="s">
-        <v>181</v>
-      </c>
-      <c r="H10" t="s">
-        <v>190</v>
-      </c>
-      <c r="I10" t="s">
-        <v>181</v>
-      </c>
-      <c r="J10" t="s">
-        <v>181</v>
-      </c>
-      <c r="K10" t="s">
-        <v>219</v>
-      </c>
-      <c r="M10" t="s">
-        <v>181</v>
-      </c>
-      <c r="O10" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -2734,43 +2587,43 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="F11" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="G11" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="H11" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="I11" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="J11" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="K11" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="M11" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="O11" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="Q11" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -2778,87 +2631,87 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="E12" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="F12" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="G12" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="H12" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I12" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="J12" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="K12" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="M12" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="O12" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="Q12" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="C13" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="D13" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="F13" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="G13" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="H13" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I13" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="J13" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="K13" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="O13" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="Q13" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -2866,43 +2719,43 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="E14" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="F14" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="H14" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="I14" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="J14" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K14" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="M14" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="O14" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="Q14" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -2910,33 +2763,33 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="G15" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" t="s">
         <v>128</v>
       </c>
-      <c r="B16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" t="s">
-        <v>148</v>
-      </c>
       <c r="G16" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2944,16 +2797,16 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="G17" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2961,16 +2814,16 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="G18" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2978,16 +2831,16 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="G19" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2995,22 +2848,22 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3018,10 +2871,10 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3029,22 +2882,22 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3052,22 +2905,22 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3075,10 +2928,10 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3086,16 +2939,16 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="G25" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3103,16 +2956,16 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E26" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="G26" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3158,10 +3011,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3169,7 +3022,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3177,16 +3030,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="C4" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3194,10 +3047,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="C5" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3205,22 +3058,22 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="C6" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3228,16 +3081,16 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C7" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="E7" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="G7" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3245,16 +3098,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C8" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="E8" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="G8" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3262,16 +3115,16 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="C9" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="G9" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3279,22 +3132,22 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="C10" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3302,16 +3155,16 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="C11" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="E11" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="G11" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3319,22 +3172,22 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="C12" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3342,16 +3195,16 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="C13" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="E13" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="G13" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3359,16 +3212,16 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="E14" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="G14" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3376,16 +3229,16 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="C15" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="E15" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="G15" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3393,10 +3246,10 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="C16" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3404,16 +3257,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="C17" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="E17" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="G17" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3421,16 +3274,16 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="G18" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3438,16 +3291,16 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="C19" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E19" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="G19" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3455,16 +3308,16 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C20" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="E20" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="G20" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3472,16 +3325,16 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="G21" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3489,16 +3342,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C22" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="E22" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="G22" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3506,191 +3359,191 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="C23" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="E23" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G23" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C24" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="B25" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="C25" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E25" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="G25" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="B26" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="E26" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="G26" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="B27" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="C27" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="E27" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="G27" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="C28" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="E28" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="G28" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B29" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="C29" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B30" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="C30" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="E30" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="G30" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B31" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="C31" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="E31" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="G31" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B32" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="C32" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="E32" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="G32" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B33" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="C33" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="E33" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="G33" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B34" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="C34" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="E34" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="G34" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3698,90 +3551,90 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="C35" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="E35" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="G35" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B36" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="C36" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="E36" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="G36" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B37" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="C37" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="E37" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="G37" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B38" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="C38" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B39" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="C39" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F39" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G39" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -3863,58 +3716,58 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="C2" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="F2" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="G2" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="L2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="N2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="O2" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="P2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="Q2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="R2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="S2" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -3922,58 +3775,58 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="C3" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="G3" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="L3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="N3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="P3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="Q3" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="R3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="S3" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -3981,45 +3834,45 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="C4" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="D4" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="G4" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G5" t="s">
         <v>144</v>
-      </c>
-      <c r="E5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" t="s">
-        <v>403</v>
-      </c>
-      <c r="G5" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -4027,88 +3880,88 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="C6" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="B7" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="C7" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="E7" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="B8" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="C8" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="F8" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="G8" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -4116,22 +3969,22 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="F10" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="G10" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -4139,22 +3992,22 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="C11" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="F11" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="G11" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -4162,22 +4015,22 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="C12" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="F12" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="G12" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -4185,25 +4038,25 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="C13" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F13" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="G13" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="I13" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -4211,25 +4064,25 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="C14" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="D14" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="E14" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="F14" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="G14" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="I14" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -4237,28 +4090,28 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="C15" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="D15" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="E15" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="F15" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="G15" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -4266,25 +4119,25 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="C16" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="D16" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="E16" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="F16" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="G16" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I16" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -4292,25 +4145,25 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="C17" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="D17" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="E17" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="F17" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="G17" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I17" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -4318,48 +4171,48 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="C18" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="E18" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="F18" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="G18" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>400</v>
+      </c>
+      <c r="B19" t="s">
+        <v>416</v>
+      </c>
+      <c r="C19" t="s">
         <v>420</v>
       </c>
-      <c r="B19" t="s">
-        <v>436</v>
-      </c>
-      <c r="C19" t="s">
-        <v>440</v>
-      </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -4367,125 +4220,125 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="C20" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="F20" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="G20" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="B21" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="C21" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="E21" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="F21" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="G21" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="B22" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="C22" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="E22" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="F22" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="G22" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="B23" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="C23" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="E23" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="F23" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="G23" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>400</v>
+      </c>
+      <c r="B24" t="s">
+        <v>416</v>
+      </c>
+      <c r="C24" t="s">
         <v>420</v>
       </c>
-      <c r="B24" t="s">
-        <v>436</v>
-      </c>
-      <c r="C24" t="s">
-        <v>440</v>
-      </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G24" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="B25" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="C25" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="G25" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -4493,16 +4346,16 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="C26" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="E26" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="G26" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -4510,16 +4363,16 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="C27" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="E27" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="G27" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -4527,16 +4380,16 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="C28" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="E28" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="G28" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -4544,16 +4397,16 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="C29" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="E29" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="G29" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -4561,16 +4414,16 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="C30" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="E30" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="G30" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -4578,16 +4431,16 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="C31" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="E31" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="G31" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -4595,16 +4448,16 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="C32" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="E32" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="G32" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -4612,22 +4465,22 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="C33" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G33" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -4635,10 +4488,10 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="C34" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -4646,19 +4499,19 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="C35" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="D35" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="G35" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -4666,22 +4519,22 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="C36" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="F36" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -4689,16 +4542,16 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="C37" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="E37" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="G37" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -4706,22 +4559,22 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="C38" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F38" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G38" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -4729,10 +4582,10 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="C39" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -4740,10 +4593,10 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="C40" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -4751,10 +4604,10 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="C41" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -4762,10 +4615,10 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="C42" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -4773,10 +4626,10 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="C43" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -4784,10 +4637,10 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="C44" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -4795,10 +4648,10 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="C45" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -4806,10 +4659,10 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="C46" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
